--- a/S2.L1/File Posta elettronica email 2.xlsx
+++ b/S2.L1/File Posta elettronica email 2.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{22A0F2E2-F95E-0348-A53D-E15A8F9E4343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB9B828-7144-BB43-B123-31EB6EAAE7D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="500" windowWidth="27840" windowHeight="16620" xr2:uid="{E123DFDF-41E7-4503-B4AC-A725FA0C5974}"/>
+    <workbookView xWindow="560" yWindow="500" windowWidth="27840" windowHeight="16600" xr2:uid="{E123DFDF-41E7-4503-B4AC-A725FA0C5974}"/>
   </bookViews>
   <sheets>
     <sheet name="anagrafica_aziendale" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,6 +21,9 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -204,9 +207,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -668,11 +670,11 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N2" sqref="N2"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -684,31 +686,34 @@
     <col min="5" max="5" width="25.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" t="str">
+        <f>LOWER(CONCATENATE(LEFT(B2,1),".",SUBSTITUTE(A2," ",""),"@",IF(C2="Verona","vr","vi"),".azienda.it"))</f>
+        <v>l.derossi@vr.azienda.it</v>
+      </c>
       <c r="E2" t="str">
         <f>LOWER(A2)</f>
         <v>de rossi</v>
@@ -726,381 +731,368 @@
         <v>l</v>
       </c>
       <c r="I2" t="str">
-        <f>IF(C2="Verona","vr","vi")</f>
+        <f t="shared" ref="I2:I11" si="0">IF(C2="Verona","vr","vi")</f>
         <v>vr</v>
       </c>
       <c r="J2" t="str">
-        <f>SUBSTITUTE(E2," ","")</f>
+        <f t="shared" ref="J2:J11" si="1">SUBSTITUTE(E2," ","")</f>
         <v>derossi</v>
       </c>
-      <c r="L2" t="str">
-        <f>LOWER(CONCATENATE(LEFT(B2,1),".",SUBSTITUTE(A2," ",""),"@",IF(C2="Verona","vr","vi"),".azienda.it"))</f>
-        <v>l.derossi@vr.azienda.it</v>
-      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" t="str">
+        <f>LOWER(CONCATENATE(LEFT(B3,1),".",SUBSTITUTE(A3," ",""),"@",IF(C3="Verona","vr","vi"),".azienda.it"))</f>
+        <v>f.rossi@vi.azienda.it</v>
+      </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E12" si="0">LOWER(A3)</f>
+        <f t="shared" ref="E3:E12" si="2">LOWER(A3)</f>
         <v>rossi</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F11" si="1">LOWER(B3)</f>
+        <f t="shared" ref="F3:F11" si="3">LOWER(B3)</f>
         <v>francesca</v>
       </c>
       <c r="G3" t="str">
-        <f t="shared" ref="G3:G11" si="2">LOWER(C3)</f>
+        <f t="shared" ref="G3:G11" si="4">LOWER(C3)</f>
         <v>vicenza</v>
       </c>
       <c r="H3" t="str">
-        <f t="shared" ref="H3:H11" si="3">LEFT(F3,1)</f>
+        <f t="shared" ref="H3:H11" si="5">LEFT(F3,1)</f>
         <v>f</v>
       </c>
       <c r="I3" t="str">
-        <f>IF(C3="Verona","vr","vi")</f>
+        <f t="shared" si="0"/>
         <v>vi</v>
       </c>
       <c r="J3" t="str">
-        <f>SUBSTITUTE(E3," ","")</f>
+        <f t="shared" si="1"/>
         <v>rossi</v>
       </c>
-      <c r="L3" t="str">
-        <f t="shared" ref="L3:L11" si="4">LOWER(CONCATENATE(LEFT(B3,1),".",SUBSTITUTE(A3," ",""),"@",IF(C3="Verona","vr","vi"),".azienda.it"))</f>
-        <v>f.rossi@vi.azienda.it</v>
-      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" t="str">
+        <f>LOWER(CONCATENATE(LEFT(B4,1),".",SUBSTITUTE(A4," ",""),"@",IF(C4="Verona","vr","vi"),".azienda.it"))</f>
+        <v>a.bianchi@vi.azienda.it</v>
+      </c>
       <c r="E4" t="str">
+        <f t="shared" si="2"/>
+        <v>bianchi</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="3"/>
+        <v>anna</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="4"/>
+        <v>vicenza</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="5"/>
+        <v>a</v>
+      </c>
+      <c r="I4" t="str">
         <f t="shared" si="0"/>
+        <v>vi</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="1"/>
         <v>bianchi</v>
       </c>
-      <c r="F4" t="str">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="str">
+        <f>LOWER(CONCATENATE(LEFT(B5,1),".",SUBSTITUTE(A5," ",""),"@",IF(C5="Verona","vr","vi"),".azienda.it"))</f>
+        <v>m.verdi@vr.azienda.it</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="2"/>
+        <v>verdi</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="3"/>
+        <v>maria luisa</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="4"/>
+        <v>verona</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="5"/>
+        <v>m</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="0"/>
+        <v>vr</v>
+      </c>
+      <c r="J5" t="str">
         <f t="shared" si="1"/>
-        <v>anna</v>
-      </c>
-      <c r="G4" t="str">
+        <v>verdi</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="str">
+        <f>LOWER(CONCATENATE(LEFT(B6,1),".",SUBSTITUTE(A6," ",""),"@",IF(C6="Verona","vr","vi"),".azienda.it"))</f>
+        <v>s.neri@vi.azienda.it</v>
+      </c>
+      <c r="E6" t="str">
         <f t="shared" si="2"/>
+        <v>neri</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="3"/>
+        <v>stefani</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="4"/>
         <v>vicenza</v>
       </c>
-      <c r="H4" t="str">
+      <c r="H6" t="str">
+        <f t="shared" si="5"/>
+        <v>s</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="0"/>
+        <v>vi</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="1"/>
+        <v>neri</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="str">
+        <f>LOWER(CONCATENATE(LEFT(B7,1),".",SUBSTITUTE(A7," ",""),"@",IF(C7="Verona","vr","vi"),".azienda.it"))</f>
+        <v>a.rosa@vr.azienda.it</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="2"/>
+        <v>rosa</v>
+      </c>
+      <c r="F7" t="str">
         <f t="shared" si="3"/>
+        <v>andre</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="4"/>
+        <v>verona</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="5"/>
         <v>a</v>
       </c>
-      <c r="I4" t="str">
-        <f>IF(C4="Verona","vr","vi")</f>
+      <c r="I7" t="str">
+        <f t="shared" si="0"/>
+        <v>vr</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="1"/>
+        <v>rosa</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="str">
+        <f>LOWER(CONCATENATE(LEFT(B8,1),".",SUBSTITUTE(A8," ",""),"@",IF(C8="Verona","vr","vi"),".azienda.it"))</f>
+        <v>f.derosa@vi.azienda.it</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="2"/>
+        <v>de rosa</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="3"/>
+        <v>federica</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="4"/>
+        <v>vicenza</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="5"/>
+        <v>f</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="0"/>
         <v>vi</v>
       </c>
-      <c r="J4" t="str">
-        <f>SUBSTITUTE(E4," ","")</f>
-        <v>bianchi</v>
-      </c>
-      <c r="L4" t="str">
+      <c r="J8" t="str">
+        <f t="shared" si="1"/>
+        <v>derosa</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="str">
+        <f>LOWER(CONCATENATE(LEFT(B9,1),".",SUBSTITUTE(A9," ",""),"@",IF(C9="Verona","vr","vi"),".azienda.it"))</f>
+        <v>p.verdini@vr.azienda.it</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="2"/>
+        <v>verdini</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="3"/>
+        <v>paolo</v>
+      </c>
+      <c r="G9" t="str">
         <f t="shared" si="4"/>
-        <v>a.bianchi@vi.azienda.it</v>
+        <v>verona</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="5"/>
+        <v>p</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="0"/>
+        <v>vr</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="1"/>
+        <v>verdini</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="2" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" t="str">
+      <c r="D10" t="str">
+        <f>LOWER(CONCATENATE(LEFT(B10,1),".",SUBSTITUTE(A10," ",""),"@",IF(C10="Verona","vr","vi"),".azienda.it"))</f>
+        <v>l.rossini@vr.azienda.it</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="2"/>
+        <v>rossini</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="3"/>
+        <v>loretta</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="4"/>
+        <v>verona</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="5"/>
+        <v>l</v>
+      </c>
+      <c r="I10" t="str">
         <f t="shared" si="0"/>
-        <v>verdi</v>
-      </c>
-      <c r="F5" t="str">
+        <v>vr</v>
+      </c>
+      <c r="J10" t="str">
         <f t="shared" si="1"/>
-        <v>maria luisa</v>
-      </c>
-      <c r="G5" t="str">
+        <v>rossini</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="str">
+        <f>LOWER(CONCATENATE(LEFT(B11,1),".",SUBSTITUTE(A11," ",""),"@",IF(C11="Verona","vr","vi"),".azienda.it"))</f>
+        <v>a.bianconi@vr.azienda.it</v>
+      </c>
+      <c r="E11" t="str">
         <f t="shared" si="2"/>
+        <v>bianconi</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="3"/>
+        <v>antonio</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="4"/>
         <v>verona</v>
       </c>
-      <c r="H5" t="str">
-        <f t="shared" si="3"/>
-        <v>m</v>
-      </c>
-      <c r="I5" t="str">
-        <f>IF(C5="Verona","vr","vi")</f>
+      <c r="H11" t="str">
+        <f t="shared" si="5"/>
+        <v>a</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="0"/>
         <v>vr</v>
       </c>
-      <c r="J5" t="str">
-        <f>SUBSTITUTE(E5," ","")</f>
-        <v>verdi</v>
-      </c>
-      <c r="L5" t="str">
-        <f t="shared" si="4"/>
-        <v>m.verdi@vr.azienda.it</v>
+      <c r="J11" t="str">
+        <f t="shared" si="1"/>
+        <v>bianconi</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" t="str">
-        <f t="shared" si="0"/>
-        <v>neri</v>
-      </c>
-      <c r="F6" t="str">
-        <f t="shared" si="1"/>
-        <v>stefani</v>
-      </c>
-      <c r="G6" t="str">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E12" t="str">
         <f t="shared" si="2"/>
-        <v>vicenza</v>
-      </c>
-      <c r="H6" t="str">
-        <f t="shared" si="3"/>
-        <v>s</v>
-      </c>
-      <c r="I6" t="str">
-        <f>IF(C6="Verona","vr","vi")</f>
-        <v>vi</v>
-      </c>
-      <c r="J6" t="str">
-        <f>SUBSTITUTE(E6," ","")</f>
-        <v>neri</v>
-      </c>
-      <c r="L6" t="str">
-        <f t="shared" si="4"/>
-        <v>s.neri@vi.azienda.it</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" t="str">
-        <f t="shared" si="0"/>
-        <v>rosa</v>
-      </c>
-      <c r="F7" t="str">
-        <f t="shared" si="1"/>
-        <v>andre</v>
-      </c>
-      <c r="G7" t="str">
-        <f t="shared" si="2"/>
-        <v>verona</v>
-      </c>
-      <c r="H7" t="str">
-        <f t="shared" si="3"/>
-        <v>a</v>
-      </c>
-      <c r="I7" t="str">
-        <f>IF(C7="Verona","vr","vi")</f>
-        <v>vr</v>
-      </c>
-      <c r="J7" t="str">
-        <f>SUBSTITUTE(E7," ","")</f>
-        <v>rosa</v>
-      </c>
-      <c r="L7" t="str">
-        <f t="shared" si="4"/>
-        <v>a.rosa@vr.azienda.it</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" t="str">
-        <f t="shared" si="0"/>
-        <v>de rosa</v>
-      </c>
-      <c r="F8" t="str">
-        <f t="shared" si="1"/>
-        <v>federica</v>
-      </c>
-      <c r="G8" t="str">
-        <f t="shared" si="2"/>
-        <v>vicenza</v>
-      </c>
-      <c r="H8" t="str">
-        <f t="shared" si="3"/>
-        <v>f</v>
-      </c>
-      <c r="I8" t="str">
-        <f>IF(C8="Verona","vr","vi")</f>
-        <v>vi</v>
-      </c>
-      <c r="J8" t="str">
-        <f>SUBSTITUTE(E8," ","")</f>
-        <v>derosa</v>
-      </c>
-      <c r="L8" t="str">
-        <f t="shared" si="4"/>
-        <v>f.derosa@vi.azienda.it</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" t="str">
-        <f t="shared" si="0"/>
-        <v>verdini</v>
-      </c>
-      <c r="F9" t="str">
-        <f t="shared" si="1"/>
-        <v>paolo</v>
-      </c>
-      <c r="G9" t="str">
-        <f t="shared" si="2"/>
-        <v>verona</v>
-      </c>
-      <c r="H9" t="str">
-        <f t="shared" si="3"/>
-        <v>p</v>
-      </c>
-      <c r="I9" t="str">
-        <f>IF(C9="Verona","vr","vi")</f>
-        <v>vr</v>
-      </c>
-      <c r="J9" t="str">
-        <f>SUBSTITUTE(E9," ","")</f>
-        <v>verdini</v>
-      </c>
-      <c r="L9" t="str">
-        <f t="shared" si="4"/>
-        <v>p.verdini@vr.azienda.it</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" t="str">
-        <f t="shared" si="0"/>
-        <v>rossini</v>
-      </c>
-      <c r="F10" t="str">
-        <f t="shared" si="1"/>
-        <v>loretta</v>
-      </c>
-      <c r="G10" t="str">
-        <f t="shared" si="2"/>
-        <v>verona</v>
-      </c>
-      <c r="H10" t="str">
-        <f t="shared" si="3"/>
-        <v>l</v>
-      </c>
-      <c r="I10" t="str">
-        <f>IF(C10="Verona","vr","vi")</f>
-        <v>vr</v>
-      </c>
-      <c r="J10" t="str">
-        <f>SUBSTITUTE(E10," ","")</f>
-        <v>rossini</v>
-      </c>
-      <c r="L10" t="str">
-        <f t="shared" si="4"/>
-        <v>l.rossini@vr.azienda.it</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" t="str">
-        <f t="shared" si="0"/>
-        <v>bianconi</v>
-      </c>
-      <c r="F11" t="str">
-        <f t="shared" si="1"/>
-        <v>antonio</v>
-      </c>
-      <c r="G11" t="str">
-        <f t="shared" si="2"/>
-        <v>verona</v>
-      </c>
-      <c r="H11" t="str">
-        <f t="shared" si="3"/>
-        <v>a</v>
-      </c>
-      <c r="I11" t="str">
-        <f>IF(C11="Verona","vr","vi")</f>
-        <v>vr</v>
-      </c>
-      <c r="J11" t="str">
-        <f>SUBSTITUTE(E11," ","")</f>
-        <v>bianconi</v>
-      </c>
-      <c r="L11" t="str">
-        <f t="shared" si="4"/>
-        <v>a.bianconi@vr.azienda.it</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="E12" t="str">
-        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
